--- a/Deliverables/16S/WADE003-arcticpred-16Sp2-taxa-output.xlsx
+++ b/Deliverables/16S/WADE003-arcticpred-16Sp2-taxa-output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\Deliverables\16S\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/Deliverables/16S/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DE6D18-E4E4-4AAE-98AB-85DF86F99A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{00DE6D18-E4E4-4AAE-98AB-85DF86F99A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0A298F2-67E1-49E3-B751-3BA5271A4FCA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="160">
   <si>
     <t>rownames</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>Now Psychrolutidae per Page et al., 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no 100% matches: &gt;98% Liparis gibbus, Liparis bathyarcticus, Liparis fabricii </t>
   </si>
 </sst>
 </file>
@@ -852,22 +855,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A47" activeCellId="6" sqref="A17:XFD17 A27:XFD27 A28:XFD28 A30:XFD30 A36:XFD36 A41:XFD41 A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="101.9296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="102" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +902,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -925,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -945,7 +948,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -971,7 +974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>134</v>
       </c>
@@ -2086,21 +2089,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD023B79-6C63-49D0-8DE1-D5A6455AB49D}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="89.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="102" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2140,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2152,7 +2160,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2169,7 +2177,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2186,7 +2194,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2200,7 +2208,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -2243,7 +2251,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -2260,7 +2268,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -2291,7 +2299,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -2314,7 +2322,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -2335,6 +2343,221 @@
       </c>
       <c r="I12" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
